--- a/Fig 3/Industry.xlsx
+++ b/Fig 3/Industry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/istaffel_ic_ac_uk/Documents/Nathan &amp; Iain Folder/~ Wedges paper/Replication Package/Fig 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="573" documentId="8_{4A3BE5A0-720F-4047-8937-CABDC347CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F43B2331-D5A3-4DE6-B39C-DC59E773DB42}"/>
+  <xr:revisionPtr revIDLastSave="584" documentId="8_{4A3BE5A0-720F-4047-8937-CABDC347CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9CB83B0-318B-4695-9CF7-E7277F92B0E4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{3263BA27-6CD3-4572-8F7E-29546A05A649}"/>
+    <workbookView xWindow="35880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3263BA27-6CD3-4572-8F7E-29546A05A649}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean hydrogen" sheetId="2" r:id="rId1"/>
@@ -539,16 +539,16 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="A - normal" xfId="2" xr:uid="{CFA82C1D-1E1A-4780-B3F0-7471CD80FF0F}"/>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4917F8-9B19-4487-A7BE-06802C772752}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -928,20 +928,20 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -949,7 +949,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="57"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="4">
         <v>2011</v>
       </c>
@@ -1422,19 +1422,19 @@
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="59">
+      <c r="E28" s="57">
         <f>E29/$C$5</f>
         <v>155.32303105962066</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="57">
         <f>F29/$C$5</f>
         <v>151.67689631943318</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="57">
         <f>G29/$C$5</f>
         <v>152.38801299343356</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="57">
         <f>H29/$C$5</f>
         <v>150.3765801544499</v>
       </c>
@@ -1632,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88405C8A-0151-402B-A8BE-2F2292BA8ED7}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="H24" sqref="E24:H24"/>
     </sheetView>
   </sheetViews>
@@ -1763,20 +1763,20 @@
       <c r="Z9" s="23"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58" t="s">
+      <c r="D10" s="60"/>
+      <c r="E10" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -1795,7 +1795,7 @@
       <c r="Z10" s="23"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B11" s="57"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="4">
         <v>2011</v>
       </c>
@@ -1887,13 +1887,13 @@
         <v>17.479530251682501</v>
       </c>
       <c r="J13" s="36"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="24"/>
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="60">
+      <c r="E24" s="58">
         <f>2/(E22-E23)</f>
         <v>4.8648678002777705</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="58">
         <f t="shared" ref="F24:H24" si="2">2/(F22-F23)</f>
         <v>4.9316927635249437</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="58">
         <f t="shared" si="2"/>
         <v>5.0371030842630642</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="58">
         <f t="shared" si="2"/>
         <v>4.9807124534572313</v>
       </c>
@@ -2593,19 +2593,19 @@
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="60">
+      <c r="E33" s="58">
         <f>2/(E31-E32)</f>
         <v>1.4749014711884449</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="58">
         <f t="shared" ref="F33" si="4">2/(F31-F32)</f>
         <v>1.460458372522859</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="58">
         <f t="shared" ref="G33" si="5">2/(G31-G32)</f>
         <v>1.433728103072315</v>
       </c>
-      <c r="H33" s="60">
+      <c r="H33" s="58">
         <f t="shared" ref="H33" si="6">2/(H31-H32)</f>
         <v>1.3684077423340106</v>
       </c>
@@ -2670,19 +2670,19 @@
       </c>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="60">
+      <c r="E37" s="58">
         <f>2 / (E31-$I$36)</f>
         <v>1.2302430733978427</v>
       </c>
-      <c r="F37" s="60">
+      <c r="F37" s="58">
         <f t="shared" ref="F37:H37" si="8">2 / (F31-$I$36)</f>
         <v>1.1571800421880618</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="58">
         <f t="shared" si="8"/>
         <v>1.1470523746444159</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="58">
         <f t="shared" si="8"/>
         <v>1.0610698120277045</v>
       </c>
@@ -2837,43 +2837,43 @@
       <c r="K8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58" t="s">
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
       <c r="U8" s="4"/>
-      <c r="W8" s="58" t="s">
+      <c r="W8" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58" t="s">
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58" t="s">
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="58" t="s">
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="AJ8" s="58"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="58"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
@@ -6877,19 +6877,19 @@
         <f t="shared" si="25"/>
         <v>2526.4746002464199</v>
       </c>
-      <c r="AI50" s="59">
+      <c r="AI50" s="57">
         <f t="shared" ref="AI50" si="26">SUM(AI19:AI49)</f>
         <v>63.275379996272591</v>
       </c>
-      <c r="AJ50" s="59">
+      <c r="AJ50" s="57">
         <f t="shared" ref="AJ50" si="27">SUM(AJ19:AJ49)</f>
         <v>69.375967175284956</v>
       </c>
-      <c r="AK50" s="59">
+      <c r="AK50" s="57">
         <f t="shared" ref="AK50" si="28">SUM(AK19:AK49)</f>
         <v>66.013670082060813</v>
       </c>
-      <c r="AL50" s="59">
+      <c r="AL50" s="57">
         <f t="shared" ref="AL50" si="29">SUM(AL19:AL49)</f>
         <v>75.794238007392607</v>
       </c>
